--- a/Unity/Assets/Config/Excel/StartConfig/Release_Zpb3/StartMachineConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_Zpb3/StartMachineConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense_Release\Unity\Assets\Config\Excel\StartConfig\Release_Zpb3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_Zpb3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8BA9E4-16BA-4E42-81CA-AB7145C97638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F1130-7107-4FD4-9F79-409444C6F78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>守护进程端口</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
+    <t>192.168.10.50</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
